--- a/src/test/resources/testData/Batch13ExcelFile.xlsx
+++ b/src/test/resources/testData/Batch13ExcelFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="12731" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="employeeData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>firstName</t>
   </si>
@@ -37,7 +37,7 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>maks</t>
+    <t>maks88</t>
   </si>
   <si>
     <t>MS</t>
@@ -46,31 +46,25 @@
     <t>noori</t>
   </si>
   <si>
-    <t>C:\Users\sohai\Downloads\image.jpg</t>
-  </si>
-  <si>
-    <t>maks123</t>
+    <t>C:\Users\sohai\Downloads\batch13Image.jpg</t>
+  </si>
+  <si>
+    <t>maks3990</t>
   </si>
   <si>
     <t>Syntax123!</t>
   </si>
   <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>gennadiy</t>
-  </si>
-  <si>
-    <t>luis123</t>
-  </si>
-  <si>
-    <t>aimal</t>
-  </si>
-  <si>
-    <t>hamid</t>
-  </si>
-  <si>
-    <t>elisa123</t>
+    <t>maks89</t>
+  </si>
+  <si>
+    <t>maks3991</t>
+  </si>
+  <si>
+    <t>maks90</t>
+  </si>
+  <si>
+    <t>maks3992</t>
   </si>
 </sst>
 </file>
@@ -79,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,58 +89,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,9 +102,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,31 +148,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +186,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -221,9 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,43 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,139 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,24 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +498,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,153 +521,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,14 +1006,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="42.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="16.5555555555556" customWidth="1"/>
   </cols>
@@ -1078,13 +1072,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1095,19 +1089,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
